--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="461">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cde-diabetes-mellitus-status-yes-or-no</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-diabetes-mellitus-status-yes-or-no</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -600,6 +600,9 @@
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>draft</t>
   </si>
   <si>
     <t>required</t>
@@ -3431,7 +3434,7 @@
         <v>82</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>82</v>
@@ -3446,13 +3449,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -3485,19 +3488,19 @@
         <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>82</v>
@@ -3505,10 +3508,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3531,19 +3534,19 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -3571,10 +3574,10 @@
         <v>119</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
@@ -3592,7 +3595,7 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3613,13 +3616,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3627,14 +3630,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3653,19 +3656,19 @@
         <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3690,13 +3693,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3714,7 +3717,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>92</v>
@@ -3729,30 +3732,30 @@
         <v>105</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3775,19 +3778,19 @@
         <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -3836,7 +3839,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3851,19 +3854,19 @@
         <v>170</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>82</v>
@@ -3871,10 +3874,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3897,16 +3900,16 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3956,7 +3959,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3977,13 +3980,13 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>82</v>
@@ -3991,14 +3994,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4017,19 +4020,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4078,7 +4081,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4093,19 +4096,19 @@
         <v>170</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4113,14 +4116,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4139,19 +4142,19 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4200,7 +4203,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4215,19 +4218,19 @@
         <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4235,10 +4238,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4261,16 +4264,16 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4320,7 +4323,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4341,13 +4344,13 @@
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4355,10 +4358,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4381,19 +4384,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4442,7 +4445,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4457,19 +4460,19 @@
         <v>170</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4477,10 +4480,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4503,19 +4506,19 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4564,7 +4567,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4573,7 +4576,7 @@
         <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>105</v>
@@ -4582,27 +4585,27 @@
         <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4625,19 +4628,19 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4662,13 +4665,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -4686,7 +4689,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4695,7 +4698,7 @@
         <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>105</v>
@@ -4710,7 +4713,7 @@
         <v>106</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4721,14 +4724,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4747,19 +4750,19 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4784,13 +4787,13 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -4808,7 +4811,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4826,27 +4829,27 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4869,19 +4872,19 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4930,7 +4933,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4951,10 +4954,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -4965,10 +4968,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4991,16 +4994,16 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5026,13 +5029,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5050,7 +5053,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5068,27 +5071,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5111,19 +5114,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5148,13 +5151,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5172,7 +5175,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5193,10 +5196,10 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5207,10 +5210,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5233,16 +5236,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5292,7 +5295,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5310,27 +5313,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5353,16 +5356,16 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5412,7 +5415,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5430,27 +5433,27 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5473,19 +5476,19 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5534,7 +5537,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5546,7 +5549,7 @@
         <v>104</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -5555,10 +5558,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5569,10 +5572,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5595,13 +5598,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5652,7 +5655,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5687,10 +5690,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5719,7 +5722,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -5772,7 +5775,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5807,14 +5810,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5836,10 +5839,10 @@
         <v>140</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>143</v>
@@ -5894,7 +5897,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5929,10 +5932,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5955,16 +5958,16 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6014,7 +6017,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6023,10 +6026,10 @@
         <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6035,10 +6038,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6049,10 +6052,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6075,16 +6078,16 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6134,7 +6137,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6143,10 +6146,10 @@
         <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6155,10 +6158,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6169,10 +6172,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6195,19 +6198,19 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6235,10 +6238,10 @@
         <v>119</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6256,7 +6259,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6274,13 +6277,13 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6291,10 +6294,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6317,19 +6320,19 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6354,13 +6357,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6378,7 +6381,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6396,13 +6399,13 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6413,10 +6416,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6439,19 +6442,19 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6500,7 +6503,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6512,7 +6515,7 @@
         <v>104</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>82</v>
@@ -6521,10 +6524,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6535,10 +6538,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6561,16 +6564,16 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6620,7 +6623,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6641,10 +6644,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6655,10 +6658,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6681,16 +6684,16 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6740,7 +6743,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6761,10 +6764,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6775,10 +6778,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6801,16 +6804,16 @@
         <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6860,7 +6863,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6881,10 +6884,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6895,10 +6898,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6921,19 +6924,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -6982,7 +6985,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7003,10 +7006,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7017,10 +7020,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7043,13 +7046,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7100,7 +7103,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7135,10 +7138,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7167,7 +7170,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -7220,7 +7223,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7255,14 +7258,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7284,10 +7287,10 @@
         <v>140</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>143</v>
@@ -7342,7 +7345,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7377,10 +7380,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7403,19 +7406,19 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7440,13 +7443,13 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>82</v>
@@ -7464,7 +7467,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>92</v>
@@ -7482,16 +7485,16 @@
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>82</v>
@@ -7499,10 +7502,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7525,19 +7528,19 @@
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7586,7 +7589,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7604,27 +7607,27 @@
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7647,19 +7650,19 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7684,13 +7687,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7708,7 +7711,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7717,7 +7720,7 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>105</v>
@@ -7732,7 +7735,7 @@
         <v>106</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -7743,14 +7746,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7769,19 +7772,19 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7806,13 +7809,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7830,7 +7833,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7848,27 +7851,27 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7894,16 +7897,16 @@
         <v>83</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7952,7 +7955,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7973,10 +7976,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-diabetes-mellitus-status-yes-or-no</t>
+    <t>http://fhir.org/de/StructureDefinition/cde-diabetes-mellitus-status-yes-or-no</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cde-diabetes-mellitus-status-yes-or-no</t>
+    <t>http://hl7.org/de/StructureDefinition/cde-diabetes-mellitus-status-yes-or-no</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T17:46:04+01:00</t>
+    <t>2023-03-17T18:03:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-diabetes-mellitus-status-yes-or-no.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
